--- a/biology/Zoologie/Bulbul_orphée/Bulbul_orphée.xlsx
+++ b/biology/Zoologie/Bulbul_orphée/Bulbul_orphée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pycnonotus jocosus
 Le Bulbul orphée (Pycnonotus jocosus), parfois appelé Condé, est une espèce de passereau de la famille des Pycnonotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bulbul orphée est indigène de l'Asie tropicale, de l'Inde à l'Asie du Sud-Est en passant par la Chine. Il a été introduit en Nouvelle-Galles du Sud, en Floride et dans de nombreuses parties du monde. Il est souvent considéré envahissant[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bulbul orphée est indigène de l'Asie tropicale, de l'Inde à l'Asie du Sud-Est en passant par la Chine. Il a été introduit en Nouvelle-Galles du Sud, en Floride et dans de nombreuses parties du monde. Il est souvent considéré envahissant.
 Il a également été importé à l'île Maurice et de là à La Réunion, où il est considéré comme une peste animale pillant les cultures et notamment les arbres fruitiers. Il y est couramment appelé merle de Maurice et accusé de faire courir un danger d'extinction au Bulbul de Bourbon quant à lui endémique, un oiseau qu'il concurrence.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bulbul orphée apprécie les champs et les zones seulement légèrement boisées ou couvertes de buissons et d'arbustes. Il s'accommode facilement de la compagnie des hommes. On rencontre cette grive souvent dans les villages et dans les jardins et parcs des grandes villes. A la Réunion, il est très fréquent, à basse et moyenne altitude, dans tous les jardins.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bulbul orphée fait environ vingt centimètres de longueur, une envergure de 25 à 28 cm et il pèse de 23 à 42 g.
 Les deux sexes ont un plumage similaire, mais celui des jeunes est plus terne.
 Il présente un plumage dorsal brun et ventral blanchâtre. Une raie sombre court en haut de sa poitrine à partir du haut du dos.
-Il se distingue notamment à sa crête noire pointant vers l'avant, à sa tache rouge sur la joue[2] et à une ligne noire dessinant de fines moustaches sur sa gorge blanche. Sa longue queue est brune sauf près du ventre, où elle est rouge.
+Il se distingue notamment à sa crête noire pointant vers l'avant, à sa tache rouge sur la joue et à une ligne noire dessinant de fines moustaches sur sa gorge blanche. Sa longue queue est brune sauf près du ventre, où elle est rouge.
 Il vit en moyenne 4 ans mais parfois jusqu'à 11 ans.
 </t>
         </is>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vol du Bulbul orphée est constitué de vols courts et saccadés[3], une succession de bonds qui ressemblent au vol d'un pic.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vol du Bulbul orphée est constitué de vols courts et saccadés, une succession de bonds qui ressemblent au vol d'un pic.
 Il vit en couple, durant la période de nourrissage des petits, les parents évoluent comme des inséparables.
 Son chant est très modulé et surtout extrêmement puissant compte tenu de sa taille. Il passe beaucoup de temps à appeler son-sa partenaire.
 </t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce passereau est essentiellement frugivore. Il se nourrit de fruits mûrs sucrés, de nectar de fleurs, de baies et de graines. Il attrape et ingère aussi des insectes et des araignées dans la végétation ou lors de courtes poursuites aériennes.
 </t>
@@ -656,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,13 +696,15 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bulbul orphée construit un nid en forme de coupe circulaire. Ce nid est constituée de brindilles, d'herbes et de radicelles, le tout lié par de la toile d'araignée, bien caché dans les buissons ou dans un petit arbre.
 La couvée comprend en général de deux à quatre œufs blanchâtres ornés de taches rouges ou brun rouge.
 Les œufs éclosent au bout de 12 à 14 jours.
 Les oisillons sont d'abord nourrit par les deux parents de chenilles et d'insectes.
-Quand ils sont adultes, ils forment des bandes pouvant compter jusqu'à 30 individus[4]. Ils mangent désormais des fruits[5].
+Quand ils sont adultes, ils forment des bandes pouvant compter jusqu'à 30 individus. Ils mangent désormais des fruits.
 </t>
         </is>
       </c>
@@ -691,7 +715,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,10 +733,12 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Son cri est puissant et facile à reconnaître parce que perçant. Son chant est un jacassement réprobateur.
-Le bulbul orphée est l'oiseau le plus populaire des concours de chants d'oiseaux organisés en Thaïlande[6], tradition très populaire dans le sud du pays (en particulier sur l'île de Ko Samui) ainsi qu'en Malaisie et à Singapour[7].
+Le bulbul orphée est l'oiseau le plus populaire des concours de chants d'oiseaux organisés en Thaïlande, tradition très populaire dans le sud du pays (en particulier sur l'île de Ko Samui) ainsi qu'en Malaisie et à Singapour.
 </t>
         </is>
       </c>
@@ -723,7 +749,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,7 +767,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des huit sous-espèces suivantes (ordre phylogénique) :
 Pycnonotus jocosus fuscicaudatus ;
@@ -761,7 +789,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bulbul_orph%C3%A9e</t>
+          <t>Bulbul_orphée</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -779,9 +807,11 @@
           <t>Évocation artistique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le compositeur Olivier Messiaen s'est inspiré de son chant dans l'une des pièces de ses Oiseaux exotiques, écrites entre 1955 et 1956[8].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le compositeur Olivier Messiaen s'est inspiré de son chant dans l'une des pièces de ses Oiseaux exotiques, écrites entre 1955 et 1956.
 </t>
         </is>
       </c>
